--- a/data/DADOS GILMAR VOL NH3.xlsx
+++ b/data/DADOS GILMAR VOL NH3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="25">
   <si>
     <t>TRATAMENTO</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>%N_VOLATILIZADO</t>
+  </si>
+  <si>
+    <t>Rp</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C57" sqref="C57:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,11 +444,11 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +462,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -491,10 +497,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -505,11 +511,14 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
         <v>13.314564135963636</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -526,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -535,13 +544,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
         <v>14.725935019090908</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -555,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -567,13 +579,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
         <v>11.097235826145456</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -587,10 +602,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -599,13 +614,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
         <v>6.6435914969454544</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -619,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -631,13 +649,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
         <v>8.9091499731636397</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -665,11 +686,14 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>1.2954556326060584</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,25 +707,28 @@
         <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
         <v>3.5250854036363632</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -715,25 +742,28 @@
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>5.4691519603636349</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -750,22 +780,25 @@
         <v>4</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>1.4453682676363644</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -779,25 +812,28 @@
         <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
         <v>5.1365964595151539</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -811,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -825,11 +861,14 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
         <v>1.6435099186578948</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -843,25 +882,28 @@
         <v>11</v>
       </c>
       <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
         <v>6</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
         <v>0.35593839971052621</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -875,25 +917,28 @@
         <v>11</v>
       </c>
       <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>3.20367483781579</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -907,25 +952,28 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
         <v>3.374350837973684</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -939,25 +987,28 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
         <v>2.3249459216052628</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -977,19 +1028,22 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
         <v>3.9123307794197267E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1003,25 +1057,28 @@
         <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3">
         <v>8.6101474500580283E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1035,25 +1092,28 @@
         <v>17</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
         <v>0.17406882322630565</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1067,25 +1127,28 @@
         <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>0.28832779193500957</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1099,25 +1162,28 @@
         <v>17</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>9.0700414449516487E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1131,25 +1197,28 @@
         <v>17</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>0.1925932356450136</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1163,25 +1232,28 @@
         <v>17</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3">
         <v>0.19205498885269906</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1198,22 +1270,25 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.30158087411527895</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1227,25 +1302,28 @@
         <v>17</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
-      </c>
-      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
         <v>1.0584789697200365</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1259,25 +1337,28 @@
         <v>17</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>0.27929276232021993</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1291,25 +1372,28 @@
         <v>17</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
         <v>3.264438201818172E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1323,25 +1407,28 @@
         <v>17</v>
       </c>
       <c r="E28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3">
         <v>1.1759096109090919E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -1355,25 +1442,28 @@
         <v>17</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
         <v>5.3425947412121255E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1387,25 +1477,28 @@
         <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
         <v>5.4559774818181868E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -1422,22 +1515,25 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>5</v>
-      </c>
-      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="3">
         <v>0.13295563616363651</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1451,25 +1547,28 @@
         <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
         <v>14.102711658000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1486,22 +1585,25 @@
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3">
         <v>18.934516572872724</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1515,25 +1617,28 @@
         <v>11</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>3</v>
-      </c>
-      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
         <v>18.877041376800001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1547,25 +1652,28 @@
         <v>11</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>13.311328017599999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1579,25 +1687,28 @@
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>5</v>
-      </c>
-      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3">
         <v>19.457318956472729</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -1611,25 +1722,28 @@
         <v>11</v>
       </c>
       <c r="E37" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
         <v>10.847703618181818</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1643,25 +1757,28 @@
         <v>11</v>
       </c>
       <c r="E38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2">
         <v>2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3">
         <v>21.799248380000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1675,25 +1792,28 @@
         <v>11</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>3</v>
-      </c>
-      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3">
         <v>13.534927486181815</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1710,22 +1830,25 @@
         <v>4</v>
       </c>
       <c r="F40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>4</v>
-      </c>
-      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3">
         <v>9.8964270159999987</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1739,25 +1862,28 @@
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>10.622792610181815</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1771,25 +1897,28 @@
         <v>11</v>
       </c>
       <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
         <v>6</v>
       </c>
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
         <v>12.483111502184208</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1803,25 +1932,28 @@
         <v>11</v>
       </c>
       <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="F43" s="2">
-        <v>3</v>
-      </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <v>2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="3">
         <v>5.2548513931578951</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1835,25 +1967,28 @@
         <v>11</v>
       </c>
       <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
-        <v>3</v>
-      </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
         <v>6.6986162502631581</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1867,25 +2002,28 @@
         <v>11</v>
       </c>
       <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
         <v>6</v>
       </c>
-      <c r="F45" s="2">
-        <v>3</v>
-      </c>
       <c r="G45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>4.7137198235789475</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1899,25 +2037,28 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
         <v>6</v>
       </c>
-      <c r="F46" s="2">
-        <v>3</v>
-      </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>8.6529315782368421</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1937,19 +2078,22 @@
         <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
         <v>2</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
         <v>2.2002350316626691</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1963,13 +2107,13 @@
         <v>17</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
@@ -1977,11 +2121,14 @@
       <c r="I48" s="2">
         <v>2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3">
         <v>1.4685323508951647</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1995,25 +2142,28 @@
         <v>17</v>
       </c>
       <c r="E49" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
         <v>2</v>
       </c>
       <c r="I49" s="2">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>1.4572290036858799</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -2027,25 +2177,28 @@
         <v>17</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
       </c>
       <c r="I50" s="2">
-        <v>4</v>
-      </c>
-      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
         <v>0.74514776483094791</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -2059,25 +2212,28 @@
         <v>17</v>
       </c>
       <c r="E51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
       </c>
       <c r="I51" s="2">
-        <v>5</v>
-      </c>
-      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="3">
         <v>0.47507428369206967</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -2091,10 +2247,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -2103,13 +2259,16 @@
         <v>2</v>
       </c>
       <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
         <v>0.77701663000183008</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2123,10 +2282,10 @@
         <v>17</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -2137,11 +2296,14 @@
       <c r="I53" s="2">
         <v>2</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="3">
         <v>0.58111986633485824</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -2167,13 +2329,16 @@
         <v>2</v>
       </c>
       <c r="I54" s="2">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>0.69190854012076841</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2187,10 +2352,10 @@
         <v>17</v>
       </c>
       <c r="E55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -2199,13 +2364,16 @@
         <v>2</v>
       </c>
       <c r="I55" s="2">
-        <v>4</v>
-      </c>
-      <c r="J55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3">
         <v>0.58904620470631275</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -2219,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -2231,13 +2399,16 @@
         <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>5</v>
-      </c>
-      <c r="J56" s="3">
+        <v>2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>5</v>
+      </c>
+      <c r="K56" s="3">
         <v>1.1603163223421777</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
@@ -2251,25 +2422,28 @@
         <v>17</v>
       </c>
       <c r="E57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
       </c>
       <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
         <v>0.56063045919999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>19</v>
       </c>
@@ -2283,13 +2457,13 @@
         <v>17</v>
       </c>
       <c r="E58" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -2297,11 +2471,14 @@
       <c r="I58" s="2">
         <v>2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
+        <v>2</v>
+      </c>
+      <c r="K58" s="3">
         <v>2.7316362006181816</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
@@ -2315,25 +2492,28 @@
         <v>17</v>
       </c>
       <c r="E59" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
       </c>
       <c r="I59" s="2">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>0.65539439878181804</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
@@ -2347,25 +2527,28 @@
         <v>17</v>
       </c>
       <c r="E60" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
         <v>2</v>
       </c>
       <c r="I60" s="2">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>1.127544355254545</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
@@ -2382,22 +2565,25 @@
         <v>5</v>
       </c>
       <c r="F61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2">
         <v>2</v>
       </c>
       <c r="I61" s="2">
-        <v>5</v>
-      </c>
-      <c r="J61" s="3">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>5</v>
+      </c>
+      <c r="K61" s="3">
         <v>1.9128815638545451</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2411,25 +2597,28 @@
         <v>11</v>
       </c>
       <c r="E62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
       <c r="H62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3">
+        <v>3</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
         <v>37.571470678269222</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2446,22 +2635,25 @@
         <v>2</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3">
+        <v>3</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3">
         <v>29.704752693000003</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2475,25 +2667,28 @@
         <v>11</v>
       </c>
       <c r="E64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2">
         <v>3</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3">
         <v>31.262000101500004</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -2507,25 +2702,28 @@
         <v>11</v>
       </c>
       <c r="E65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2">
-        <v>4</v>
-      </c>
-      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4</v>
+      </c>
+      <c r="K65" s="3">
         <v>46.585427922923088</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2539,25 +2737,28 @@
         <v>11</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+        <v>3</v>
+      </c>
+      <c r="J66" s="2">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>28.268126237076928</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -2571,25 +2772,28 @@
         <v>11</v>
       </c>
       <c r="E67" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
         <v>35.439426694874996</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
@@ -2603,25 +2807,28 @@
         <v>11</v>
       </c>
       <c r="E68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="2">
-        <v>2</v>
-      </c>
-      <c r="J68" s="3">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
         <v>33.130527659249999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -2635,25 +2842,28 @@
         <v>11</v>
       </c>
       <c r="E69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2">
         <v>3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
+        <v>3</v>
+      </c>
+      <c r="K69" s="3">
         <v>26.567368458750003</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -2670,22 +2880,25 @@
         <v>4</v>
       </c>
       <c r="F70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4</v>
+      </c>
+      <c r="K70" s="3">
         <v>21.872885564250002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
@@ -2699,25 +2912,28 @@
         <v>11</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F71" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2">
-        <v>5</v>
-      </c>
-      <c r="J71" s="3">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2">
+        <v>5</v>
+      </c>
+      <c r="K71" s="3">
         <v>15.504120305624999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
@@ -2731,25 +2947,28 @@
         <v>11</v>
       </c>
       <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
         <v>6</v>
       </c>
-      <c r="F72" s="2">
-        <v>3</v>
-      </c>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3">
         <v>3.7536452760000008</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
@@ -2763,25 +2982,28 @@
         <v>11</v>
       </c>
       <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
         <v>6</v>
       </c>
-      <c r="F73" s="2">
-        <v>3</v>
-      </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2">
-        <v>2</v>
-      </c>
-      <c r="J73" s="3">
+        <v>3</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3">
         <v>3.3307545404210521</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -2795,25 +3017,28 @@
         <v>11</v>
       </c>
       <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
         <v>6</v>
       </c>
-      <c r="F74" s="2">
-        <v>3</v>
-      </c>
       <c r="G74" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" s="2">
         <v>3</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
+        <v>3</v>
+      </c>
+      <c r="K74" s="3">
         <v>8.7559801042105256</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
@@ -2827,25 +3052,28 @@
         <v>11</v>
       </c>
       <c r="E75" s="2">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2">
         <v>6</v>
       </c>
-      <c r="F75" s="2">
-        <v>3</v>
-      </c>
       <c r="G75" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2">
-        <v>4</v>
-      </c>
-      <c r="J75" s="3">
+        <v>3</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4</v>
+      </c>
+      <c r="K75" s="3">
         <v>3.0216563614736844</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>14</v>
       </c>
@@ -2859,25 +3087,28 @@
         <v>11</v>
       </c>
       <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
         <v>6</v>
       </c>
-      <c r="F76" s="2">
-        <v>3</v>
-      </c>
       <c r="G76" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+        <v>3</v>
+      </c>
+      <c r="J76" s="2">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>7.3585932473684217</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -2897,19 +3128,22 @@
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3">
+        <v>3</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
         <v>2.3992878580548629</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -2923,25 +3157,28 @@
         <v>17</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" s="2">
-        <v>2</v>
-      </c>
-      <c r="J78" s="3">
+        <v>3</v>
+      </c>
+      <c r="J78" s="2">
+        <v>2</v>
+      </c>
+      <c r="K78" s="3">
         <v>3.2681076025735658</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -2955,25 +3192,28 @@
         <v>17</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2">
         <v>3</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
+        <v>3</v>
+      </c>
+      <c r="K79" s="3">
         <v>2.0026646254563589</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -2987,25 +3227,28 @@
         <v>17</v>
       </c>
       <c r="E80" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" s="2">
-        <v>4</v>
-      </c>
-      <c r="J80" s="3">
+        <v>3</v>
+      </c>
+      <c r="J80" s="2">
+        <v>4</v>
+      </c>
+      <c r="K80" s="3">
         <v>3.2949296517107234</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -3019,25 +3262,28 @@
         <v>17</v>
       </c>
       <c r="E81" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" s="2">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+        <v>3</v>
+      </c>
+      <c r="J81" s="2">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>2.4282611621147128</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>18</v>
       </c>
@@ -3051,25 +3297,28 @@
         <v>17</v>
       </c>
       <c r="E82" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
       </c>
       <c r="H82" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3">
         <v>0.39126910199999992</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>18</v>
       </c>
@@ -3083,25 +3332,28 @@
         <v>17</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
       </c>
       <c r="H83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" s="2">
-        <v>2</v>
-      </c>
-      <c r="J83" s="3">
+        <v>3</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2</v>
+      </c>
+      <c r="K83" s="3">
         <v>0.76833675706666649</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>18</v>
       </c>
@@ -3118,22 +3370,25 @@
         <v>3</v>
       </c>
       <c r="F84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
       </c>
       <c r="H84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" s="2">
         <v>3</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
+        <v>3</v>
+      </c>
+      <c r="K84" s="3">
         <v>0.45607812233333322</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -3147,25 +3402,28 @@
         <v>17</v>
       </c>
       <c r="E85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
       </c>
       <c r="H85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" s="2">
-        <v>4</v>
-      </c>
-      <c r="J85" s="3">
+        <v>3</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3">
         <v>0.55870525819999972</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>18</v>
       </c>
@@ -3179,25 +3437,28 @@
         <v>17</v>
       </c>
       <c r="E86" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
       </c>
       <c r="H86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>5</v>
-      </c>
-      <c r="J86" s="3">
+        <v>3</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="3">
         <v>0.68459918939999953</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>19</v>
       </c>
@@ -3211,25 +3472,28 @@
         <v>17</v>
       </c>
       <c r="E87" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" s="2">
-        <v>1</v>
-      </c>
-      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3">
         <v>8.3308364388529412</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>19</v>
       </c>
@@ -3243,25 +3507,28 @@
         <v>17</v>
       </c>
       <c r="E88" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G88" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="2">
-        <v>2</v>
-      </c>
-      <c r="J88" s="3">
+        <v>3</v>
+      </c>
+      <c r="J88" s="2">
+        <v>2</v>
+      </c>
+      <c r="K88" s="3">
         <v>8.4106895935588231</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3275,25 +3542,28 @@
         <v>17</v>
       </c>
       <c r="E89" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F89" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" s="2">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>5.9758701579705891</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>19</v>
       </c>
@@ -3307,25 +3577,28 @@
         <v>17</v>
       </c>
       <c r="E90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G90" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" s="2">
-        <v>4</v>
-      </c>
-      <c r="J90" s="3">
+        <v>3</v>
+      </c>
+      <c r="J90" s="2">
+        <v>4</v>
+      </c>
+      <c r="K90" s="3">
         <v>9.2192307900000028</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -3342,18 +3615,21 @@
         <v>5</v>
       </c>
       <c r="F91" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G91" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="2">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>7.4022485713235326</v>
       </c>
     </row>
